--- a/biology/Médecine/Strophanthine/Strophanthine.xlsx
+++ b/biology/Médecine/Strophanthine/Strophanthine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La strophanthine ou strophantine (du grec στροφή „strophé“, serpentante; et ἄνϑος „ánthos“, fleur) est un hétéroside cardiotonique qui doit son nom à Strophanthus gratus dans les semences desquelles elle est présente.
@@ -514,7 +526,9 @@
           <t>Provenance et nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La strophanthine provient de diverses plantes africaines du genre Strophanthus et de la famille des Apocynacées.
 Les principales formes de strophanthine sont :
@@ -552,9 +566,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Nord Cameroun, les Fali du mont Tinguelin utilisaient le fruit de Strophanthus sarmentosus pour préparer du poison pour leurs flèches[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Nord Cameroun, les Fali du mont Tinguelin utilisaient le fruit de Strophanthus sarmentosus pour préparer du poison pour leurs flèches.
 Les propriétés pharmacologiques des Strophantus ont été découvertes en 1859 après la contamination accidentelle de la brosse à dents du biologiste Kirk de l'expédition Livingstone. En 1862 le pharmacologue et clinicien écossais Thomas Fraser, réussit à isoler la k-strophanthine de Strophanthus kombé. En 1885 l'extrait de Strophanthus kombé est introduit comme médicament cardiotonique (Tinctura strophanthia). En 1888 le chimiste français Arnaud isole la g-Strophanthine de Strophanthus gratus et d'Acokanthera ouabaio, qui est commercialisée à partir de 1904.
 </t>
         </is>
@@ -584,7 +600,9 @@
           <t>Toxicologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Encore de nos jours, on observe l'action toxique (principalement l'ouabaïne) sous forme de (tentatives de) meurtres en Afrique orientale.
 La strophantine agit comme antagoniste de la pompe Na+/K+ ATPase, inhibant la sortie du sodium, et défavorisant ainsi l'échangeur Na+/Ca2+. Il y a des conséquences cardiaques par exemple au niveau des cardiomyocytes : le taux de calcium augmente, favorisant les contractions et pouvant entrainer la mort.
